--- a/Labs/Excel/resources/пример 7.xlsx
+++ b/Labs/Excel/resources/пример 7.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB841F15-5FC6-49D1-A6A0-3ACA79D8BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15255" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
@@ -122,10 +128,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="[$-419]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="d/m;@"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -267,31 +277,15 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -303,18 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,13 +309,59 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Денежный" xfId="3" builtinId="4"/>
-    <cellStyle name="Денежный 2" xfId="2"/>
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный_Лист1" xfId="5"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -341,6 +369,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +453,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -632,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,35 +718,35 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -689,31 +754,31 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="18">
         <v>1370610</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="20">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="22">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="24">
         <v>40329</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="26">
         <v>40359</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="28">
         <v>45687</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="30">
         <v>36922</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="32">
         <v>6030684.0000000009</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="34">
         <v>41118300</v>
       </c>
     </row>
@@ -721,31 +786,31 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="18">
         <v>1296690</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="20">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="22">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="24">
         <v>40359</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="26">
         <v>40390</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="28">
         <v>43223</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="30">
         <v>34458</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="32">
         <v>5705436</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="34">
         <v>38900700</v>
       </c>
     </row>
@@ -753,31 +818,31 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="18">
         <v>1703520</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="20">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="22">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="24">
         <v>40390</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="26">
         <v>40421</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="28">
         <v>56784</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="30">
         <v>48019</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="32">
         <v>7495488.0000000009</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="34">
         <v>51105600</v>
       </c>
     </row>
@@ -785,77 +850,79 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <v>2947020</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="20">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="22">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="24">
         <v>40421</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="26">
         <v>40451</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="28">
         <v>98234</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="30">
         <v>89469</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="32">
         <v>12966888.000000002</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="34">
         <v>88410600</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="19">
         <v>1250250</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="21">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="23">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="25">
         <v>40451</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="27">
         <v>40482</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="29">
         <v>41675</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="31">
         <v>32910</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="33">
         <v>5501100</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="35">
         <v>37507500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" activeCellId="1" sqref="A1 C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -870,678 +937,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="12">
         <v>35</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="13">
         <v>40201</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="12">
         <v>95.5</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="12">
         <v>93.34</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="12">
         <v>2.16</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="12">
         <v>15</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="13">
         <v>40208</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="12">
         <v>99.42</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="12">
         <v>66.37</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="12">
         <v>33.049999999999997</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="12">
         <v>99</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="13">
         <v>40189</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="12">
         <v>12.14</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="12">
         <v>59.47</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="12">
         <v>-47.33</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="12">
         <v>90</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="13">
         <v>40211</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="12">
         <v>66.33</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="12">
         <v>58.65</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="12">
         <v>7.68</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="12">
         <v>89</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="13">
         <v>40202</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="12">
         <v>13.19</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="12">
         <v>56.53</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="12">
         <v>-43.34</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="12">
         <v>38</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="13">
         <v>40207</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="12">
         <v>13.85</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="12">
         <v>28.74</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="12">
         <v>-14.89</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="12">
         <v>48</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="13">
         <v>40191</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="12">
         <v>8.5</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="12">
         <v>91.16</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="12">
         <v>-82.66</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="12">
         <v>86</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="13">
         <v>40196</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="12">
         <v>97.41</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="12">
         <v>33.130000000000003</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="12">
         <v>64.28</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="12">
         <v>66</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="13">
         <v>40200</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="12">
         <v>38.11</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="12">
         <v>67.37</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="12">
         <v>-29.26</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="12">
         <v>61</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="13">
         <v>40206</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="12">
         <v>12.18</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="12">
         <v>24.5</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="12">
         <v>-12.32</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="13">
         <v>40212</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="12">
         <v>22.94</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="12">
         <v>87.8</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="12">
         <v>-64.86</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="12">
         <v>42</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="13">
         <v>40194</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="12">
         <v>27.74</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="12">
         <v>88.97</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="12">
         <v>-61.23</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="12">
         <v>70</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="13">
         <v>40205</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="12">
         <v>14.39</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="12">
         <v>26.25</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="12">
         <v>-11.86</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="12">
         <v>8</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="13">
         <v>40190</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="12">
         <v>92.21</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="12">
         <v>56.28</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="12">
         <v>35.93</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="13">
         <v>40192</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="12">
         <v>69.38</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="12">
         <v>84.38</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="12">
         <v>-15</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="13">
         <v>40213</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="12">
         <v>38.770000000000003</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="12">
         <v>3.75</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="12">
         <v>35.020000000000003</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="12">
         <v>46</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="13">
         <v>40210</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="12">
         <v>16.86</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="12">
         <v>23.14</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="12">
         <v>-6.28</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="12">
         <v>51</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="13">
         <v>40199</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="12">
         <v>80.510000000000005</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="12">
         <v>74.83</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="12">
         <v>5.6800000000000068</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="12">
         <v>29</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="13">
         <v>40195</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="12">
         <v>30.08</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="12">
         <v>53.86</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="12">
         <v>-23.78</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="12">
         <v>68</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="13">
         <v>40204</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="12">
         <v>92.76</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="12">
         <v>56.6</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="12">
         <v>36.159999999999997</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="12">
         <v>70</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="13">
         <v>40209</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="12">
         <v>41.49</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="12">
         <v>0.05</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="12">
         <v>41.44</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="12">
         <v>3</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="13">
         <v>40197</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="12">
         <v>87.12</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="12">
         <v>22.42</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="12">
         <v>64.7</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="12">
         <v>5</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="13">
         <v>40193</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="12">
         <v>52.48</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="12">
         <v>51.74</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="12">
         <v>0.73999999999999488</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="12">
         <v>6</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="13">
         <v>40198</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="12">
         <v>57.22</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="12">
         <v>6.22</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="12">
         <v>51</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="8">
         <v>72</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="9">
         <v>40203</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="8">
         <v>14.21</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="8">
         <v>25.19</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="8">
         <v>-10.98</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
